--- a/documents/DB定義書_チーム名.xlsx
+++ b/documents/DB定義書_チーム名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ACDA17-C7F4-4771-A099-7194D51D31D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4001B-F70B-45CF-9339-ADA2C87796A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="996" yWindow="468" windowWidth="22044" windowHeight="12492" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -386,10 +386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回答ID</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -437,13 +433,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴タイトル</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>que-id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -477,14 +466,6 @@
   </si>
   <si>
     <t>his-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>his-title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user-id int  ,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -504,6 +485,80 @@
     <rPh sb="0" eb="4">
       <t>クロヤナギソウイチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Questions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Histories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que-count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que-date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問参照回数</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンサンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問日付</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que-count int,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">que-date date, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que-date date,</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -971,7 +1026,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -998,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1357,7 +1412,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1387,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1425,7 +1480,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1467,7 +1522,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table User (</v>
+        <v>create table Users (</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1538,7 +1593,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -1566,7 +1621,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -1582,7 +1637,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1826,7 +1881,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B18" sqref="B18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1844,7 +1899,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1856,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1880,7 +1935,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1894,7 +1949,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1936,7 +1991,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Question (</v>
+        <v>create table Questions (</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1947,7 +2002,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>52</v>
@@ -1979,7 +2034,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -2007,7 +2062,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -2035,7 +2090,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -2063,7 +2118,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -2170,34 +2225,52 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="L18" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2213,6 +2286,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -2227,6 +2303,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -2350,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE80CC6-E75E-45EF-BFD0-FA6F156D2311}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2369,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,7 +2460,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2405,7 +2484,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2419,7 +2498,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2461,7 +2540,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Answer (</v>
+        <v>create table Answers (</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2469,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
@@ -2504,7 +2583,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -2529,13 +2608,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3">
         <v>255</v>
@@ -2557,13 +2636,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3">
         <v>255</v>
@@ -2617,7 +2696,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -2630,41 +2709,59 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2680,6 +2777,9 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
+      <c r="L18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2694,6 +2794,9 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -2846,7 +2949,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2864,7 +2967,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2900,7 +3003,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2914,7 +3017,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2956,7 +3059,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table History (</v>
+        <v>create table Histories (</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2964,10 +3067,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
@@ -2996,27 +3099,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>his-title varchar (100),</v>
+        <v>user-id int  ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3027,7 +3130,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>38</v>
@@ -3052,10 +3155,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -3072,34 +3175,24 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>ans-id int  ,</v>
+        <v xml:space="preserve">ans-id int  </v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3116,7 +3209,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3132,9 +3225,6 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">

--- a/documents/DB定義書_チーム名.xlsx
+++ b/documents/DB定義書_チーム名.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4001B-F70B-45CF-9339-ADA2C87796A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F8C22-2631-48D4-864E-C68D2C06C3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="468" windowWidth="22044" windowHeight="12492" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="684" yWindow="396" windowWidth="22044" windowHeight="12492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId2"/>
-    <sheet name="Question" sheetId="3" r:id="rId3"/>
-    <sheet name="Answer" sheetId="4" r:id="rId4"/>
-    <sheet name="History" sheetId="5" r:id="rId5"/>
+    <sheet name="Users" sheetId="2" r:id="rId2"/>
+    <sheet name="Questions" sheetId="3" r:id="rId3"/>
+    <sheet name="Answers" sheetId="4" r:id="rId4"/>
+    <sheet name="Histories" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -189,40 +189,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問データ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答データ</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴データ</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Users</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Question</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Answer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>History</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -559,6 +526,10 @@
   </si>
   <si>
     <t>que-date date,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1026,8 +997,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1105,11 +1076,11 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1117,14 +1088,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1132,14 +1103,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1147,14 +1118,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1442,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1480,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1530,23 +1501,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1562,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -1576,7 +1547,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1590,13 +1561,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -1604,7 +1575,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1618,13 +1589,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -1632,12 +1603,12 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1654,7 +1625,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1899,7 +1870,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1911,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1935,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1949,7 +1920,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1999,23 +1970,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2031,13 +2002,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2045,7 +2016,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2059,13 +2030,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2073,7 +2044,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2087,13 +2058,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <v>255</v>
@@ -2101,7 +2072,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2115,13 +2086,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3">
         <v>255</v>
@@ -2141,19 +2112,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -2169,13 +2140,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3">
         <v>30</v>
@@ -2183,7 +2154,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2197,28 +2168,28 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2226,26 +2197,26 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3"/>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,24 +2224,24 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2287,7 +2258,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE80CC6-E75E-45EF-BFD0-FA6F156D2311}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2448,7 +2419,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2484,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2498,7 +2469,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2507,6 +2478,11 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
+    <row r="6" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="9" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
@@ -2548,23 +2524,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2580,19 +2556,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -2608,13 +2584,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3">
         <v>255</v>
@@ -2622,7 +2598,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2636,13 +2612,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
         <v>255</v>
@@ -2662,19 +2638,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -2690,13 +2666,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -2704,12 +2680,12 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2717,26 +2693,26 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2744,24 +2720,24 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2778,7 +2754,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2949,7 +2925,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2967,7 +2943,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2979,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3003,7 +2979,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3017,7 +2993,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3067,23 +3043,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -3099,19 +3075,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -3127,19 +3103,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -3155,19 +3131,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -3192,7 +3168,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">

--- a/documents/DB定義書_チーム名.xlsx
+++ b/documents/DB定義書_チーム名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F8C22-2631-48D4-864E-C68D2C06C3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{455FBFC0-4966-46D2-AD0C-917C4B491C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="396" windowWidth="22044" windowHeight="12492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22620" windowHeight="12492" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -189,6 +189,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>質問データ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答データ</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴データ</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Users</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -345,14 +366,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>f-tag int,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>primary key  (q-id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回答ID</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -517,19 +530,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>que-count int,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">que-date date, </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>que-date date,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>s</t>
+    <t>user-id int,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f-tag,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que-count,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>primary key  (que-id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ans-date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ans-date date,</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -669,6 +694,78 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176134</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381653</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E62287-FA3B-6D4B-A8AF-9B8DA5F6A798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1883681" y="3492963"/>
+          <a:ext cx="2636133" cy="912983"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70540"/>
+            <a:gd name="adj2" fmla="val -68079"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新があった場合はどうしましょう？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,25 +1094,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1024,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1039,19 +1136,19 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1076,59 +1173,59 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1137,7 +1234,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1146,7 +1243,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1155,7 +1252,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1164,7 +1261,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1173,7 +1270,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1182,7 +1279,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1191,7 +1288,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1200,7 +1297,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1209,7 +1306,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1218,7 +1315,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1227,7 +1324,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1236,7 +1333,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1245,7 +1342,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1254,7 +1351,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1263,7 +1360,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1272,7 +1369,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1281,7 +1378,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1290,7 +1387,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1299,7 +1396,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1308,7 +1405,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1317,7 +1414,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1326,7 +1423,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1335,7 +1432,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1344,7 +1441,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1353,7 +1450,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1362,7 +1459,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1382,29 +1479,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView zoomScale="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1413,12 +1508,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1432,7 +1527,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1446,12 +1541,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1460,7 +1555,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1496,28 +1591,28 @@
         <v>create table Users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1528,18 +1623,18 @@
         <v>user-id int  ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -1547,7 +1642,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1556,18 +1651,18 @@
         <v>user-name varchar  (30),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -1575,7 +1670,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1584,18 +1679,18 @@
         <v>user-pw varchar  (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -1603,15 +1698,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1625,10 +1720,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1645,7 +1740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1659,7 +1754,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1673,7 +1768,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1687,7 +1782,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1701,7 +1796,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1715,7 +1810,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1729,7 +1824,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1743,7 +1838,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1757,7 +1852,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1771,7 +1866,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1785,7 +1880,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1799,7 +1894,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1813,7 +1908,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1827,7 +1922,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1851,29 +1946,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30920C8-FA4B-438E-8F0E-FC00E9543F8D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:J19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="137" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1882,12 +1977,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1901,12 +1996,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1915,12 +2010,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1929,7 +2024,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1965,28 +2060,28 @@
         <v>create table Questions (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1997,18 +2092,18 @@
         <v>que-id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2016,7 +2111,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2025,18 +2120,18 @@
         <v>que-category varchar  (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2044,7 +2139,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2053,18 +2148,18 @@
         <v>que-title varchar  (100),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3">
         <v>255</v>
@@ -2072,7 +2167,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2081,18 +2176,18 @@
         <v>que-contents varchar  (255),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3">
         <v>255</v>
@@ -2107,144 +2202,132 @@
         <v>que-file varchar  (255),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L16" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user-id int ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>user-name varchar  (30),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="L17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2258,10 +2341,10 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2274,11 +2357,8 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2292,7 +2372,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2306,7 +2386,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2320,7 +2400,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2334,7 +2414,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2348,7 +2428,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2362,7 +2442,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2376,7 +2456,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2393,6 +2473,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2400,26 +2481,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE80CC6-E75E-45EF-BFD0-FA6F156D2311}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A10" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2431,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2455,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2469,7 +2550,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2478,11 +2559,6 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-    </row>
     <row r="9" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
@@ -2524,23 +2600,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2556,19 +2632,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -2584,13 +2660,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3">
         <v>255</v>
@@ -2598,7 +2674,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2612,13 +2688,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3">
         <v>255</v>
@@ -2638,19 +2714,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -2666,13 +2742,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -2680,12 +2756,12 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2693,51 +2769,41 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2754,7 +2820,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2770,9 +2836,6 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="20" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -2924,29 +2987,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE14650-DB62-4EC5-9B87-55F131BB0F93}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2955,12 +3018,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2974,12 +3037,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2988,12 +3051,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3002,7 +3065,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3038,28 +3101,28 @@
         <v>create table Histories (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -3070,24 +3133,24 @@
         <v>his-id int  ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -3098,24 +3161,24 @@
         <v>user-id int  ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -3126,24 +3189,24 @@
         <v>que-id int  ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -3154,7 +3217,7 @@
         <v xml:space="preserve">ans-id int  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3168,10 +3231,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3188,7 +3251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3202,7 +3265,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3216,7 +3279,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3230,7 +3293,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3244,7 +3307,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3258,7 +3321,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3272,7 +3335,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3286,7 +3349,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3300,7 +3363,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3314,7 +3377,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3328,7 +3391,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3342,7 +3405,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3356,7 +3419,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3370,7 +3433,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
